--- a/raw/lifestyle_SC.xlsx
+++ b/raw/lifestyle_SC.xlsx
@@ -1,23 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20910"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="96" yWindow="48" windowWidth="22968" windowHeight="9084"/>
+    <workbookView xWindow="100" yWindow="40" windowWidth="22960" windowHeight="9080"/>
   </bookViews>
   <sheets>
     <sheet name="lifestyle_SC" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="129">
-  <si>
-    <t>疾病类群</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="118">
   <si>
     <t>疾病</t>
   </si>
@@ -25,9 +27,6 @@
     <t>疾病介绍</t>
   </si>
   <si>
-    <t>新陈代谢相关</t>
-  </si>
-  <si>
     <t>肥胖症</t>
   </si>
   <si>
@@ -58,9 +57,6 @@
     <t>避免过量饮酒。每日饮用至少2000C.C的白开水(不包括饮料、果汁、咖啡)且不憋尿。减少应酬和大鱼大肉的频率。应尽量避免普林含量高之动物内脏(如脑、肝、腰子等)、海鲜(牡蛎、蛤、小管、小鱼干、吻仔鱼、虱目鱼、吴郭鱼等)、肉汤、肉汁、鸡精等。</t>
   </si>
   <si>
-    <t>心血管相关</t>
-  </si>
-  <si>
     <t>冠状动脉疾病</t>
   </si>
   <si>
@@ -85,9 +81,6 @@
     <t>最有效的方法是穿着弹性袜，早上起床前穿上。平常多把脚举高，坐办公室者每小时起身活动。不要盘坐或跷二郎腿，穿宽松的衣服、避免穿紧身衣着或穿高跟鞋。少喝酒，酒精会加速静脉曲张的发生。慢性咳嗽者、便秘者或尿道阻塞者请寻找适当治疗(此类疾病的患者会增加腹部用力而加速静脉曲张的发生)。</t>
   </si>
   <si>
-    <t>神经及骨骼退化相关</t>
-  </si>
-  <si>
     <t>晚发型阿兹海默症</t>
   </si>
   <si>
@@ -118,9 +111,6 @@
     <t>摄取充足的蛋白质，高龄者要预防肌少症蛋白质需要量建议为1-1.5公克/公斤，建议热量需求为30-40大卡/公斤。规律的运动，维持肌肉的力量，使体能活动不至于下降，进而减少跌倒的机会。阻力运动可藉由增加肌肉细胞中蛋白质的合成，改善肌力及肌肉量，如深蹲、仰卧起坐、侧抬腿等；而有氧运动包括慢跑、健走、游泳、骑脚踏车等，能够促使骨骼肌增大，并增加肌肉量。</t>
   </si>
   <si>
-    <t>妇科相关</t>
-  </si>
-  <si>
     <t>子宫内膜异位症</t>
   </si>
   <si>
@@ -145,9 +135,6 @@
     <t>注意水份的摄取，每天水量2000ml，旦不要憋尿，以把细菌冲离泌尿系统。如厕后的擦拭应由前往后，避免细菌由肛门口往尿道传播。性行为后应尽量喝水以加速排出已存在之细菌以及保持会阴清洁。避免辛辣和刺激性温补、燥热的食物食物，会使发炎更加严重。摄取糖和过多油脂会干扰免疫系统的功能。避免含咖啡因与酒精的饮料，发炎时吃利尿食物会让不舒服症状更严重。</t>
   </si>
   <si>
-    <t>自体免疫类相关</t>
-  </si>
-  <si>
     <t>类风湿性关节炎</t>
   </si>
   <si>
@@ -172,9 +159,6 @@
     <t>尽量保持良好及正确的坐姿、睡姿及走路之姿势，避免长时间维持一个姿势不动(如久坐)、多做伸展运动及伸张脊椎的运动，以预防脊椎的变形。饮食避免高油脂、重咸与精致高糖分食物食物。食材可选用能调节免疫功能及抗氧化抗发炎的食物为主，如含有Omega-3脂肪酸(鲑鱼、鲔鱼、鲭鱼、秋刀鱼)、富含维生素C(木瓜、西瓜、凤梨、草莓、青椒、芽菜、芥蓝、菠菜、花椰菜)、维生素E(豆类、胚芽、坚果、南瓜)的食物。</t>
   </si>
   <si>
-    <t>肝胆肠胃相关</t>
-  </si>
-  <si>
     <t>肝硬化</t>
   </si>
   <si>
@@ -211,9 +195,6 @@
     <t>定期检查有无胆囊结石。不能吃得太油腻，特别在晚上更要注意。不能酗酒，饮酒要适量。不能吃得太饱。切忌暴饮暴食。</t>
   </si>
   <si>
-    <t>眼部老化相关</t>
-  </si>
-  <si>
     <t>白内障</t>
   </si>
   <si>
@@ -238,9 +219,6 @@
     <t>至少每半年到眼科诊所作眼底散瞳检查，若有早期病变如裂孔，先予以雷射治疗。以防止恶化成视网膜剥离。平时多补充适量的维生素A、C、E，多少有所帮助。</t>
   </si>
   <si>
-    <t>精神疾病相关</t>
-  </si>
-  <si>
     <t>忧郁症</t>
   </si>
   <si>
@@ -259,9 +237,6 @@
     <t>精神分裂症在2014年已被正名为思觉失调。日常生活中宜学习做好情绪管理，正当释放压力。工作和生活需取得平衡，避免身心长期处于透支状态。饮食上可摄取多种不同的食物，多蔬菜水果，来获取足够的营养素。平常宜养成规律作息，每天睡足8小时。</t>
   </si>
   <si>
-    <t>其他综合类</t>
-  </si>
-  <si>
     <t>慢性阻塞性肺病</t>
   </si>
   <si>
@@ -314,9 +289,6 @@
   </si>
   <si>
     <t>正确的洁牙方式是防范牙周病的最有效方法，可采用贝氏刷牙法并搭配牙线的使用，在每次用餐过后确实执行。每半年定期找牙科医师检查口腔卫生，必要时可加做牙结石清除（洗牙）。饮食上宜减少精致甜食、饮料摄取，并定时补充水分，降低牙斑菌的滋生。</t>
-  </si>
-  <si>
-    <t>癌症</t>
   </si>
   <si>
     <t>口腔癌</t>
@@ -406,8 +378,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -753,670 +725,497 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C59"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="18.88671875" customWidth="1"/>
-    <col min="2" max="2" width="38" customWidth="1"/>
+    <col min="1" max="1" width="38" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="C3" t="s">
+      <c r="B4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
         <v>8</v>
       </c>
-      <c r="C4" t="s">
+      <c r="B5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
         <v>10</v>
       </c>
-      <c r="C5" t="s">
+      <c r="B6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" t="s">
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
         <v>12</v>
       </c>
-      <c r="C6" t="s">
+      <c r="B7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>14</v>
       </c>
       <c r="B8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
         <v>17</v>
       </c>
-      <c r="C8" t="s">
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="B10" t="s">
         <v>19</v>
       </c>
-      <c r="C9" t="s">
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" t="s">
+      <c r="B11" t="s">
         <v>21</v>
       </c>
-      <c r="C10" t="s">
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="s">
+      <c r="B12" t="s">
         <v>23</v>
       </c>
-      <c r="B11" t="s">
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
         <v>24</v>
       </c>
-      <c r="C11" t="s">
+      <c r="B13" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" t="s">
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
         <v>26</v>
       </c>
-      <c r="C12" t="s">
+      <c r="B14" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" t="s">
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
         <v>28</v>
       </c>
-      <c r="C13" t="s">
+      <c r="B15" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" t="s">
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
         <v>30</v>
       </c>
-      <c r="C14" t="s">
+      <c r="B16" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" t="s">
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
         <v>32</v>
       </c>
-      <c r="C15" t="s">
+      <c r="B17" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
-      <c r="A16" t="s">
-        <v>34</v>
-      </c>
-      <c r="B16" t="s">
-        <v>35</v>
-      </c>
-      <c r="C16" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" t="s">
-        <v>34</v>
-      </c>
-      <c r="B17" t="s">
-        <v>37</v>
-      </c>
-      <c r="C17" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:2">
       <c r="A18" t="s">
         <v>34</v>
       </c>
       <c r="B18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" t="s">
         <v>39</v>
       </c>
-      <c r="C18" t="s">
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" t="s">
-        <v>34</v>
-      </c>
-      <c r="B19" t="s">
+      <c r="B21" t="s">
         <v>41</v>
       </c>
-      <c r="C19" t="s">
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" t="s">
+      <c r="B22" t="s">
         <v>43</v>
       </c>
-      <c r="B20" t="s">
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
         <v>44</v>
       </c>
-      <c r="C20" t="s">
+      <c r="B23" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
-      <c r="A21" t="s">
-        <v>43</v>
-      </c>
-      <c r="B21" t="s">
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
         <v>46</v>
       </c>
-      <c r="C21" t="s">
+      <c r="B24" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
-      <c r="A22" t="s">
-        <v>43</v>
-      </c>
-      <c r="B22" t="s">
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
         <v>48</v>
       </c>
-      <c r="C22" t="s">
+      <c r="B25" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
-      <c r="A23" t="s">
-        <v>43</v>
-      </c>
-      <c r="B23" t="s">
+    <row r="26" spans="1:2">
+      <c r="A26" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C23" t="s">
+      <c r="B26" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
-      <c r="A24" t="s">
+    <row r="27" spans="1:2">
+      <c r="A27" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B27" t="s">
         <v>53</v>
       </c>
-      <c r="C24" t="s">
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" t="s">
-        <v>52</v>
-      </c>
-      <c r="B25" t="s">
+      <c r="B28" t="s">
         <v>55</v>
       </c>
-      <c r="C25" t="s">
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" t="s">
-        <v>52</v>
-      </c>
-      <c r="B26" s="1" t="s">
+      <c r="B29" t="s">
         <v>57</v>
       </c>
-      <c r="C26" t="s">
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" t="s">
-        <v>52</v>
-      </c>
-      <c r="B27" s="1" t="s">
+      <c r="B30" t="s">
         <v>59</v>
       </c>
-      <c r="C27" t="s">
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" t="s">
-        <v>52</v>
-      </c>
-      <c r="B28" t="s">
+      <c r="B31" t="s">
         <v>61</v>
       </c>
-      <c r="C28" t="s">
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" t="s">
-        <v>52</v>
-      </c>
-      <c r="B29" t="s">
+      <c r="B32" t="s">
         <v>63</v>
       </c>
-      <c r="C29" t="s">
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" t="s">
+      <c r="B33" t="s">
         <v>65</v>
       </c>
-      <c r="B30" t="s">
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
         <v>66</v>
       </c>
-      <c r="C30" t="s">
+      <c r="B34" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
-      <c r="A31" t="s">
-        <v>65</v>
-      </c>
-      <c r="B31" t="s">
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
         <v>68</v>
       </c>
-      <c r="C31" t="s">
+      <c r="B35" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
-      <c r="A32" t="s">
-        <v>65</v>
-      </c>
-      <c r="B32" t="s">
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
         <v>70</v>
       </c>
-      <c r="C32" t="s">
+      <c r="B36" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
-      <c r="A33" t="s">
-        <v>65</v>
-      </c>
-      <c r="B33" t="s">
+    <row r="37" spans="1:2">
+      <c r="A37" t="s">
         <v>72</v>
       </c>
-      <c r="C33" t="s">
+      <c r="B37" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
-      <c r="A34" t="s">
+    <row r="38" spans="1:2">
+      <c r="A38" t="s">
         <v>74</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B38" t="s">
         <v>75</v>
       </c>
-      <c r="C34" t="s">
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" t="s">
-        <v>74</v>
-      </c>
-      <c r="B35" t="s">
+      <c r="B39" t="s">
         <v>77</v>
       </c>
-      <c r="C35" t="s">
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" t="s">
-        <v>74</v>
-      </c>
-      <c r="B36" t="s">
+      <c r="B40" t="s">
         <v>79</v>
       </c>
-      <c r="C36" t="s">
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" t="s">
+      <c r="B41" t="s">
         <v>81</v>
       </c>
-      <c r="B37" t="s">
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" t="s">
         <v>82</v>
       </c>
-      <c r="C37" t="s">
+      <c r="B42" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
-      <c r="A38" t="s">
-        <v>81</v>
-      </c>
-      <c r="B38" t="s">
+    <row r="43" spans="1:2">
+      <c r="A43" t="s">
         <v>84</v>
       </c>
-      <c r="C38" t="s">
+      <c r="B43" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
-      <c r="A39" t="s">
-        <v>81</v>
-      </c>
-      <c r="B39" t="s">
+    <row r="44" spans="1:2">
+      <c r="A44" t="s">
         <v>86</v>
       </c>
-      <c r="C39" t="s">
+      <c r="B44" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
-      <c r="A40" t="s">
-        <v>81</v>
-      </c>
-      <c r="B40" t="s">
+    <row r="45" spans="1:2">
+      <c r="A45" t="s">
         <v>88</v>
       </c>
-      <c r="C40" t="s">
+      <c r="B45" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
-      <c r="A41" t="s">
-        <v>81</v>
-      </c>
-      <c r="B41" t="s">
+    <row r="46" spans="1:2">
+      <c r="A46" t="s">
         <v>90</v>
       </c>
-      <c r="C41" t="s">
+      <c r="B46" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
-      <c r="A42" t="s">
-        <v>81</v>
-      </c>
-      <c r="B42" t="s">
+    <row r="47" spans="1:2">
+      <c r="A47" t="s">
         <v>92</v>
       </c>
-      <c r="C42" t="s">
+      <c r="B47" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
-      <c r="A43" t="s">
-        <v>81</v>
-      </c>
-      <c r="B43" t="s">
+    <row r="48" spans="1:2">
+      <c r="A48" t="s">
         <v>94</v>
       </c>
-      <c r="C43" t="s">
+      <c r="B48" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
-      <c r="A44" t="s">
-        <v>81</v>
-      </c>
-      <c r="B44" t="s">
+    <row r="49" spans="1:2">
+      <c r="A49" t="s">
         <v>96</v>
       </c>
-      <c r="C44" t="s">
+      <c r="B49" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
-      <c r="A45" t="s">
-        <v>81</v>
-      </c>
-      <c r="B45" t="s">
+    <row r="50" spans="1:2">
+      <c r="A50" t="s">
         <v>98</v>
       </c>
-      <c r="C45" t="s">
+      <c r="B50" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
-      <c r="A46" t="s">
-        <v>100</v>
-      </c>
-      <c r="B46" t="s">
-        <v>101</v>
-      </c>
-      <c r="C46" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
-      <c r="A47" t="s">
-        <v>100</v>
-      </c>
-      <c r="B47" t="s">
-        <v>103</v>
-      </c>
-      <c r="C47" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
-      <c r="A48" t="s">
-        <v>100</v>
-      </c>
-      <c r="B48" t="s">
-        <v>105</v>
-      </c>
-      <c r="C48" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
-      <c r="A49" t="s">
-        <v>100</v>
-      </c>
-      <c r="B49" t="s">
-        <v>107</v>
-      </c>
-      <c r="C49" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
-      <c r="A50" t="s">
-        <v>100</v>
-      </c>
-      <c r="B50" t="s">
-        <v>109</v>
-      </c>
-      <c r="C50" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:2">
       <c r="A51" t="s">
         <v>100</v>
       </c>
       <c r="B51" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" t="s">
+        <v>102</v>
+      </c>
+      <c r="B52" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" t="s">
+        <v>104</v>
+      </c>
+      <c r="B53" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" t="s">
+        <v>106</v>
+      </c>
+      <c r="B54" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" t="s">
+        <v>108</v>
+      </c>
+      <c r="B55" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" t="s">
+        <v>110</v>
+      </c>
+      <c r="B56" t="s">
         <v>111</v>
       </c>
-      <c r="C51" t="s">
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="52" spans="1:3">
-      <c r="A52" t="s">
-        <v>100</v>
-      </c>
-      <c r="B52" t="s">
+      <c r="B57" t="s">
         <v>113</v>
       </c>
-      <c r="C52" t="s">
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="53" spans="1:3">
-      <c r="A53" t="s">
-        <v>100</v>
-      </c>
-      <c r="B53" t="s">
+      <c r="B58" t="s">
         <v>115</v>
       </c>
-      <c r="C53" t="s">
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="54" spans="1:3">
-      <c r="A54" t="s">
-        <v>100</v>
-      </c>
-      <c r="B54" t="s">
+      <c r="B59" t="s">
         <v>117</v>
-      </c>
-      <c r="C54" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
-      <c r="A55" t="s">
-        <v>100</v>
-      </c>
-      <c r="B55" t="s">
-        <v>119</v>
-      </c>
-      <c r="C55" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
-      <c r="A56" t="s">
-        <v>100</v>
-      </c>
-      <c r="B56" t="s">
-        <v>121</v>
-      </c>
-      <c r="C56" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
-      <c r="A57" t="s">
-        <v>100</v>
-      </c>
-      <c r="B57" t="s">
-        <v>123</v>
-      </c>
-      <c r="C57" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3">
-      <c r="A58" t="s">
-        <v>100</v>
-      </c>
-      <c r="B58" t="s">
-        <v>125</v>
-      </c>
-      <c r="C58" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
-      <c r="A59" t="s">
-        <v>100</v>
-      </c>
-      <c r="B59" t="s">
-        <v>127</v>
-      </c>
-      <c r="C59" t="s">
-        <v>128</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>